--- a/primers_minus20.xlsx
+++ b/primers_minus20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B51A6D2-DF68-4A44-BC79-21FC17464818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750DDAB6-624F-4F45-A0B4-9FBD232BE61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="0" windowWidth="22020" windowHeight="17440" xr2:uid="{8B90D846-3A5E-3D4B-A0DD-CD8AA31427F2}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
